--- a/Documents/Motors_List.xlsx
+++ b/Documents/Motors_List.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeni\Documents\GitHub\Powertrain-ISTrain-24_25\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26608918-A67A-4D8F-85D9-7D3EE9A1E644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B498636E-4E14-4763-A376-987D6B9FA662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77B3B303-ED70-45CA-AA46-843829307B1E}"/>
+    <workbookView minimized="1" xWindow="3096" yWindow="2208" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{77B3B303-ED70-45CA-AA46-843829307B1E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DC motor" sheetId="1" r:id="rId1"/>
+    <sheet name="Brushless" sheetId="2" r:id="rId2"/>
+    <sheet name="PMSM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,97 +38,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
-  <si>
-    <t>Potencia Pico</t>
-  </si>
-  <si>
-    <t>Potencia Nominal</t>
-  </si>
-  <si>
-    <t>Torque Pico</t>
-  </si>
-  <si>
-    <t>Torque Nominal</t>
-  </si>
-  <si>
-    <t>Velocidade Pico</t>
-  </si>
-  <si>
-    <t>Pais</t>
-  </si>
-  <si>
-    <t>Brushed DC</t>
-  </si>
-  <si>
-    <t>Brushless DC</t>
-  </si>
-  <si>
-    <t>PMSM</t>
-  </si>
-  <si>
-    <t>ME1718</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>Velocidade Nominal</t>
-  </si>
-  <si>
-    <t>4000 rpm</t>
-  </si>
-  <si>
-    <t>Preço</t>
-  </si>
-  <si>
     <t>EU</t>
   </si>
   <si>
-    <t>Saietta</t>
-  </si>
-  <si>
     <t>Vevor</t>
   </si>
   <si>
-    <t>Peso</t>
-  </si>
-  <si>
-    <t>Corrente nominal</t>
-  </si>
-  <si>
-    <t>Observaçoes</t>
-  </si>
-  <si>
-    <t>Capacidade recomendada é 10-20 Ah</t>
-  </si>
-  <si>
-    <t>HPM-3000B</t>
-  </si>
-  <si>
-    <t>Voltagem nominal</t>
-  </si>
-  <si>
-    <t>Lituania</t>
-  </si>
-  <si>
     <t>BLDC-108</t>
   </si>
   <si>
-    <t>T-w cruve</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>Peak Power</t>
+  </si>
+  <si>
+    <t>Nominal Power</t>
+  </si>
+  <si>
+    <t>Peak Torque</t>
+  </si>
+  <si>
+    <t>Nominal Torque</t>
+  </si>
+  <si>
+    <t>Nominal Current</t>
+  </si>
+  <si>
+    <t>Nominal Voltage</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Purchase category</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>DC / DT Series</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>https://shorturl.at/VaR2V</t>
+  </si>
+  <si>
+    <t>Contact Supplier</t>
+  </si>
+  <si>
+    <t>Tech. Info available</t>
+  </si>
+  <si>
+    <t>1. Pouca info, teriamos de contactar o supplier
+2. Teriamos que comprar 5 motores</t>
+  </si>
+  <si>
+    <t>XD-DC-3000W</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/5n6kb8ar</t>
+  </si>
+  <si>
+    <t>Contact supplier</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Peak Speed</t>
+  </si>
+  <si>
+    <t>Nominal speed</t>
+  </si>
+  <si>
+    <t>KDS</t>
+  </si>
+  <si>
+    <t>Weigth</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/2xbnh8y8</t>
+  </si>
+  <si>
+    <t>150(5)</t>
+  </si>
+  <si>
+    <t>RTB</t>
+  </si>
+  <si>
+    <t>HPM-300</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/2ptbsjsy</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/47xpvxkr</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Ebay BLDC</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/bdekxdbp</t>
+  </si>
+  <si>
+    <t>1.Parece ser demasiado barato para a performance e tenho algumas duvidas em relação à compatabilidade de controladores
+2.A capacidade de baterias de Litio recomendada é 12-20 Ah
+3. Há disponiveis a 2500W a preços semelhantes</t>
+  </si>
+  <si>
+    <t>Lead Time</t>
+  </si>
+  <si>
+    <t>China 1</t>
+  </si>
+  <si>
+    <t>2 meses</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/58jdbc48 (Aliexpress)</t>
+  </si>
+  <si>
+    <t>Taizhou</t>
+  </si>
+  <si>
+    <t>https://tinyurl.com/y6nj3b4x</t>
+  </si>
+  <si>
+    <t>48/60/72</t>
+  </si>
+  <si>
+    <t>1-Tem colling
+2-Tem controller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +206,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,19 +239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.749992370372631"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,16 +253,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -512,270 +600,682 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D596B62-309F-449B-AFFC-ECE36077CC4B}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="16.88671875" customWidth="1"/>
+    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>14.7</v>
+      </c>
+      <c r="J2">
+        <v>98</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2000</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J3">
+        <v>98</v>
+      </c>
+      <c r="K3">
+        <v>72</v>
+      </c>
+      <c r="L3">
+        <v>4000</v>
+      </c>
+      <c r="M3">
+        <v>2800</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>320</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>3.7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>13.56</v>
+      </c>
+      <c r="J4">
+        <v>105</v>
+      </c>
+      <c r="K4">
+        <v>48</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2500</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6B312E-22D5-4601-A971-E432CD754561}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5.5</v>
+      </c>
+      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="L2">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>4800</v>
+      </c>
+      <c r="O2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>500</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>9.4</v>
+      </c>
+      <c r="K3">
+        <v>85</v>
+      </c>
+      <c r="L3">
+        <v>48</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>4000</v>
+      </c>
+      <c r="O3">
+        <v>7.6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>350</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>1.5</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>4100</v>
+      </c>
+      <c r="O4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>5.2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>10.3</v>
+      </c>
+      <c r="K5">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>4600</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>270</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6">
+        <v>5.2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>41</v>
+      </c>
+      <c r="J6">
+        <v>10.3</v>
+      </c>
+      <c r="K6">
+        <v>58</v>
+      </c>
+      <c r="L6">
+        <v>60</v>
+      </c>
+      <c r="M6">
+        <v>4600</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{52D3AC2E-737B-4DAE-9975-85F9308F4234}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{093E079C-7759-4C29-89AA-DA4E6640C552}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{D8260F19-E8A1-4A19-B8A2-28B4194D47A3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD25836-AA7E-4381-AF56-7652EA846068}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>3000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>17</v>
       </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2">
         <v>3000</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>5.5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>4800</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>60</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7">
-        <v>150</v>
-      </c>
-      <c r="L7">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="N2">
+        <v>4000</v>
+      </c>
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>9.4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8">
-        <v>4000</v>
-      </c>
-      <c r="H8">
-        <v>85</v>
-      </c>
-      <c r="I8">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8">
-        <v>514</v>
-      </c>
-      <c r="L8">
-        <v>7.6</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>1.5</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>4000</v>
-      </c>
-      <c r="G9">
-        <v>3000</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9">
-        <v>330</v>
-      </c>
-      <c r="L9">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
+      <c r="Q2" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Motors_List.xlsx
+++ b/Documents/Motors_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeni\Documents\GitHub\Powertrain-ISTrain-24_25\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B498636E-4E14-4763-A376-987D6B9FA662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A643A-D133-4E73-86FE-39DB6283EFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3096" yWindow="2208" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{77B3B303-ED70-45CA-AA46-843829307B1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77B3B303-ED70-45CA-AA46-843829307B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="DC motor" sheetId="1" r:id="rId1"/>
@@ -602,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D596B62-309F-449B-AFFC-ECE36077CC4B}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6B312E-22D5-4601-A971-E432CD754561}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Documents/Motors_List.xlsx
+++ b/Documents/Motors_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmeni\Documents\GitHub\Powertrain-ISTrain-24_25\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567A643A-D133-4E73-86FE-39DB6283EFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC953DE4-F2AE-45BD-B380-9E72AC93B005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77B3B303-ED70-45CA-AA46-843829307B1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{77B3B303-ED70-45CA-AA46-843829307B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="DC motor" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
   <si>
     <t>-</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Weigth</t>
   </si>
   <si>
-    <t>https://tinyurl.com/2xbnh8y8</t>
-  </si>
-  <si>
     <t>150(5)</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>https://tinyurl.com/2ptbsjsy</t>
-  </si>
-  <si>
-    <t>https://tinyurl.com/47xpvxkr</t>
   </si>
   <si>
     <t>yes</t>
@@ -192,6 +186,43 @@
   <si>
     <t>1-Tem colling
 2-Tem controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tinyurl.com/47xpvxkr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tinyurl.com/2xbnh8y8 </t>
+  </si>
+  <si>
+    <t>Peak Power(kW)</t>
+  </si>
+  <si>
+    <t>Nominal Power(kW)</t>
+  </si>
+  <si>
+    <t>Peak Torque(N.m)</t>
+  </si>
+  <si>
+    <t>Nominal Torque(N.m)</t>
+  </si>
+  <si>
+    <t>Nominal Current(A)</t>
+  </si>
+  <si>
+    <t>Nominal Voltage(V)</t>
+  </si>
+  <si>
+    <t>Peak Speed (rpm)</t>
+  </si>
+  <si>
+    <t>Nominal speed(rpm)</t>
+  </si>
+  <si>
+    <t>Price(€)</t>
+  </si>
+  <si>
+    <t>1.Tem sensor de temperatura imbutido
+2.Tem bastante technical info available</t>
   </si>
 </sst>
 </file>
@@ -602,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D596B62-309F-449B-AFFC-ECE36077CC4B}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -686,7 +717,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -825,22 +856,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6B312E-22D5-4601-A971-E432CD754561}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="41.33203125" customWidth="1"/>
@@ -857,37 +889,37 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>31</v>
@@ -906,14 +938,14 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>32</v>
+      <c r="C2" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E2">
         <v>150</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -946,24 +978,24 @@
         <v>5</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>500</v>
       </c>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -978,7 +1010,7 @@
         <v>9.4</v>
       </c>
       <c r="K3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L3">
         <v>48</v>
@@ -994,6 +1026,9 @@
       </c>
       <c r="P3" t="s">
         <v>4</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1003,14 +1038,14 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E4">
         <v>350</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1019,13 +1054,13 @@
         <v>1.5</v>
       </c>
       <c r="I4">
-        <v>8</v>
-      </c>
-      <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" t="s">
-        <v>0</v>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
       </c>
       <c r="L4">
         <v>48</v>
@@ -1034,30 +1069,30 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4100</v>
+        <v>3000</v>
       </c>
       <c r="O4">
         <v>4.9000000000000004</v>
       </c>
       <c r="P4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5">
         <v>5.2</v>
@@ -1092,22 +1127,22 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E6">
         <v>270</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>5.2</v>
@@ -1145,6 +1180,8 @@
     <hyperlink ref="C6" r:id="rId1" xr:uid="{52D3AC2E-737B-4DAE-9975-85F9308F4234}"/>
     <hyperlink ref="C5" r:id="rId2" xr:uid="{093E079C-7759-4C29-89AA-DA4E6640C552}"/>
     <hyperlink ref="C3" r:id="rId3" xr:uid="{D8260F19-E8A1-4A19-B8A2-28B4194D47A3}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{484F376E-163C-4B8B-9E50-2E6E7DCFA387}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{D47C5DBD-0CB0-4EFE-AB89-85EDE46F3D01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1186,7 +1223,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -1230,13 +1267,13 @@
     </row>
     <row r="2" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -1263,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M2">
         <v>3000</v>
@@ -1275,7 +1312,7 @@
         <v>27</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
